--- a/manuscript/tables_figures/table_variables.xlsx
+++ b/manuscript/tables_figures/table_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/SCBI-ForestGEO/McGregor_climate-sensitivity-variation/manuscript/tables_figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Smithsonian)\Github_Ian\McGregor_climate-sensitivity-variation\manuscript\tables_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48161FFA-5E26-A74C-AB70-53CC07F55329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78C861C-706F-4829-AED2-0595C006345E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="3080" windowWidth="27240" windowHeight="16440" xr2:uid="{B3D4FDC9-1842-3C4E-B6CD-114DB37D495C}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B3D4FDC9-1842-3C4E-B6CD-114DB37D495C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>variable</t>
   </si>
@@ -180,14 +180,29 @@
     <t>%</t>
   </si>
   <si>
-    <t>Mpa</t>
+    <t>MPa</t>
+  </si>
+  <si>
+    <t>*TWI is only a range of numbers</t>
+  </si>
+  <si>
+    <t>??*</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>??^</t>
+  </si>
+  <si>
+    <t>^unsure what to put here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,6 +236,11 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="3">
@@ -298,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -314,19 +334,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,24 +362,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,28 +704,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDD4935-D600-A547-8367-238277C2BA2B}">
-  <dimension ref="B1:M26"/>
+  <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" customWidth="1"/>
-    <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="3.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="5.375" customWidth="1"/>
+    <col min="9" max="9" width="7.375" customWidth="1"/>
+    <col min="10" max="10" width="5.875" customWidth="1"/>
+    <col min="11" max="11" width="1.625" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17" thickBot="1"/>
-    <row r="2" spans="2:13">
+    <row r="1" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -716,101 +733,109 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="22" customHeight="1">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="2:13" ht="22" customHeight="1">
-      <c r="B4" s="22" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="2:13" ht="19" customHeight="1">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="2:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1625</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0.87</v>
+      </c>
+      <c r="J5" s="27">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="27">
+        <v>1.99</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="22" customHeight="1">
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="2:13">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -818,75 +843,81 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
+      <c r="F7" s="13"/>
+      <c r="G7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="12">
+        <v>507</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="16">
+      <c r="E8" s="12">
         <v>1977</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="2:13">
+      <c r="F8" s="13"/>
+      <c r="G8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="12">
+        <v>547</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <v>1999</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="2:13">
+      <c r="F9" s="13"/>
+      <c r="G9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="12">
+        <v>571</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -897,22 +928,32 @@
       <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="2">
+        <v>31.92</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3.92</v>
+      </c>
       <c r="K11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="27"/>
+      <c r="L11" s="2">
+        <v>134.19</v>
+      </c>
       <c r="M11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -923,24 +964,32 @@
       <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="H12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="4">
+        <v>20.21</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4.76</v>
+      </c>
       <c r="K12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="28"/>
+      <c r="L12" s="4">
+        <v>43.87</v>
+      </c>
       <c r="M12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
@@ -956,7 +1005,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -968,10 +1017,12 @@
         <v>28</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="28"/>
+      <c r="G14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="4">
+        <v>31</v>
+      </c>
       <c r="I14" s="4" t="s">
         <v>35</v>
       </c>
@@ -984,7 +1035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -992,10 +1043,12 @@
         <v>31</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="28"/>
+      <c r="G15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="4">
+        <v>231</v>
+      </c>
       <c r="I15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1006,7 +1059,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
@@ -1014,10 +1067,12 @@
         <v>29</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="28"/>
+      <c r="G16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="4">
+        <v>224</v>
+      </c>
       <c r="I16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1028,7 +1083,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
@@ -1036,10 +1091,12 @@
         <v>30</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="28"/>
+      <c r="G17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="4">
+        <v>101</v>
+      </c>
       <c r="I17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1050,7 +1107,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" s="1" customFormat="1">
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -1065,18 +1122,26 @@
       <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="H18" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5.66</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
       <c r="K18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4">
+        <v>16</v>
+      </c>
       <c r="M18" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="1" customFormat="1">
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
@@ -1092,7 +1157,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1103,20 +1168,28 @@
       <c r="E20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="27"/>
+      <c r="H20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.4</v>
+      </c>
       <c r="K20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="27"/>
+      <c r="L20" s="2">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="M20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -1129,18 +1202,26 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="28"/>
+      <c r="H21" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="4">
+        <v>48.69</v>
+      </c>
+      <c r="J21" s="4">
+        <v>30.68</v>
+      </c>
       <c r="K21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="28"/>
+      <c r="L21" s="4">
+        <v>75.8</v>
+      </c>
       <c r="M21" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -1148,71 +1229,89 @@
       <c r="D22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="27"/>
+      <c r="H22" s="2">
+        <v>408</v>
+      </c>
       <c r="I22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="K22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="27"/>
+      <c r="L22" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="M22" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="27"/>
+      <c r="H23" s="2">
+        <v>31</v>
+      </c>
       <c r="I23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="27"/>
+      <c r="J23" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="K23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="27"/>
+      <c r="L23" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="27"/>
+      <c r="H24" s="2">
+        <v>178</v>
+      </c>
       <c r="I24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="27"/>
+      <c r="J24" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="K24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="27"/>
+      <c r="L24" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -1227,41 +1326,67 @@
       <c r="G25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="28"/>
+      <c r="H25" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="4">
+        <v>-2.39</v>
+      </c>
+      <c r="J25" s="4">
+        <v>-2.76</v>
+      </c>
       <c r="K25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="28"/>
+      <c r="L25" s="4">
+        <v>-1.92</v>
+      </c>
       <c r="M25" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="17" thickBot="1">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19" t="s">
+    <row r="26" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="19" t="s">
+      <c r="E26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="19" t="s">
+      <c r="H26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="15">
+        <v>13.06</v>
+      </c>
+      <c r="J26" s="15">
+        <v>8.52</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="15">
+        <v>24.64</v>
+      </c>
+      <c r="M26" s="15" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1271,5 +1396,6 @@
     <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
 </worksheet>
 </file>
--- a/manuscript/tables_figures/table_variables.xlsx
+++ b/manuscript/tables_figures/table_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Smithsonian)\Github_Ian\McGregor_climate-sensitivity-variation\manuscript\tables_figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/SCBI-ForestGEO/McGregor_climate-sensitivity-variation/manuscript/tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78C861C-706F-4829-AED2-0595C006345E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750663E0-8AE2-4C4D-A061-7CD6CD3C6B6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B3D4FDC9-1842-3C4E-B6CD-114DB37D495C}"/>
+    <workbookView xWindow="8400" yWindow="1140" windowWidth="19440" windowHeight="15000" xr2:uid="{B3D4FDC9-1842-3C4E-B6CD-114DB37D495C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>variable</t>
   </si>
@@ -183,26 +183,17 @@
     <t>MPa</t>
   </si>
   <si>
-    <t>*TWI is only a range of numbers</t>
-  </si>
-  <si>
-    <t>??*</t>
-  </si>
-  <si>
     <t>cm</t>
   </si>
   <si>
-    <t>??^</t>
-  </si>
-  <si>
-    <t>^unsure what to put here</t>
+    <t>Ian, please confirm these</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +232,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -252,7 +244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,24 +354,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -390,6 +364,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,28 +694,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDD4935-D600-A547-8367-238277C2BA2B}">
-  <dimension ref="B1:M29"/>
+  <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="3.375" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="8" max="8" width="5.375" customWidth="1"/>
-    <col min="9" max="9" width="7.375" customWidth="1"/>
-    <col min="10" max="10" width="5.875" customWidth="1"/>
-    <col min="11" max="11" width="1.625" customWidth="1"/>
-    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="17" thickBot="1"/>
+    <row r="2" spans="2:13">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -733,17 +723,17 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22" t="s">
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="22" customHeight="1">
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
         <v>0</v>
@@ -766,14 +756,14 @@
       <c r="I3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="2:13" ht="22" customHeight="1">
       <c r="B4" s="18" t="s">
         <v>46</v>
       </c>
@@ -789,7 +779,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="2:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="19" customHeight="1">
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
         <v>44</v>
@@ -803,23 +793,23 @@
       <c r="H5" s="4">
         <v>1625</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="20">
         <v>0.87</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="21">
         <v>0</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="27">
+      <c r="K5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="21">
         <v>1.99</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="22" customHeight="1">
       <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
@@ -835,7 +825,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -861,7 +851,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -881,7 +871,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
@@ -901,7 +891,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
@@ -917,7 +907,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -932,10 +922,10 @@
         <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="H11" s="27">
+        <v>1625</v>
       </c>
       <c r="I11" s="2">
         <v>31.92</v>
@@ -953,7 +943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -970,8 +960,8 @@
       <c r="G12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>55</v>
+      <c r="H12" s="27">
+        <v>1625</v>
       </c>
       <c r="I12" s="4">
         <v>20.21</v>
@@ -989,7 +979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
@@ -1005,7 +995,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1035,7 +1025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -1059,7 +1049,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
@@ -1083,7 +1073,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
@@ -1107,7 +1097,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" s="1" customFormat="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -1122,8 +1112,8 @@
       <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>53</v>
+      <c r="H18" s="27">
+        <v>1625</v>
       </c>
       <c r="I18" s="4">
         <v>5.66</v>
@@ -1141,7 +1131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" s="1" customFormat="1">
       <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
@@ -1157,7 +1147,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1170,8 +1160,8 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="20" t="s">
-        <v>55</v>
+      <c r="H20" s="27">
+        <v>1625</v>
       </c>
       <c r="I20" s="2">
         <v>0.62</v>
@@ -1189,7 +1179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -1202,8 +1192,8 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="20" t="s">
-        <v>55</v>
+      <c r="H21" s="27">
+        <v>1625</v>
       </c>
       <c r="I21" s="4">
         <v>48.69</v>
@@ -1221,7 +1211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -1242,20 +1232,16 @@
       <c r="I22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
@@ -1272,18 +1258,14 @@
       <c r="I23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="L23" s="4"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
@@ -1300,18 +1282,14 @@
       <c r="I24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -1326,8 +1304,8 @@
       <c r="G25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>55</v>
+      <c r="H25" s="27">
+        <v>1625</v>
       </c>
       <c r="I25" s="4">
         <v>-2.39</v>
@@ -1345,7 +1323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" ht="17" thickBot="1">
       <c r="B26" s="15"/>
       <c r="C26" s="15" t="s">
         <v>12</v>
@@ -1360,8 +1338,8 @@
       <c r="G26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>55</v>
+      <c r="H26" s="27">
+        <v>1625</v>
       </c>
       <c r="I26" s="15">
         <v>13.06</v>
@@ -1379,14 +1357,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H29" t="s">
-        <v>56</v>
+    <row r="31" spans="2:13">
+      <c r="H31" s="28" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/manuscript/tables_figures/table_variables.xlsx
+++ b/manuscript/tables_figures/table_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/SCBI-ForestGEO/McGregor_climate-sensitivity-variation/manuscript/tables_figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Smithsonian)\Github_Ian\McGregor_climate-sensitivity-variation\manuscript\tables_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750663E0-8AE2-4C4D-A061-7CD6CD3C6B6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D0EC7D-9F6B-49D1-A640-30DEC925160C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1140" windowWidth="19440" windowHeight="15000" xr2:uid="{B3D4FDC9-1842-3C4E-B6CD-114DB37D495C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B3D4FDC9-1842-3C4E-B6CD-114DB37D495C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>variable</t>
   </si>
@@ -184,16 +184,13 @@
   </si>
   <si>
     <t>cm</t>
-  </si>
-  <si>
-    <t>Ian, please confirm these</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,18 +232,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -310,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -376,10 +367,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,25 +687,25 @@
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="3.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="5.375" customWidth="1"/>
+    <col min="9" max="9" width="7.375" customWidth="1"/>
+    <col min="10" max="10" width="5.875" customWidth="1"/>
+    <col min="11" max="11" width="1.625" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17" thickBot="1"/>
-    <row r="2" spans="2:13">
+    <row r="1" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -733,7 +723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="22" customHeight="1">
+    <row r="3" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
         <v>0</v>
@@ -763,7 +753,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="25"/>
     </row>
-    <row r="4" spans="2:13" ht="22" customHeight="1">
+    <row r="4" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>46</v>
       </c>
@@ -779,7 +769,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="2:13" ht="19" customHeight="1">
+    <row r="5" spans="2:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
         <v>44</v>
@@ -809,7 +799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="22" customHeight="1">
+    <row r="6" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
@@ -825,7 +815,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -851,7 +841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -871,7 +861,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
@@ -891,7 +881,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
@@ -907,7 +897,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -924,7 +914,7 @@
       <c r="G11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="4">
         <v>1625</v>
       </c>
       <c r="I11" s="2">
@@ -943,7 +933,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -960,7 +950,7 @@
       <c r="G12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="4">
         <v>1625</v>
       </c>
       <c r="I12" s="4">
@@ -979,7 +969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
@@ -995,7 +985,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1025,7 +1015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -1049,7 +1039,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
@@ -1073,7 +1063,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
@@ -1097,7 +1087,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" s="1" customFormat="1">
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -1112,7 +1102,7 @@
       <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="4">
         <v>1625</v>
       </c>
       <c r="I18" s="4">
@@ -1131,7 +1121,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="1" customFormat="1">
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
@@ -1147,7 +1137,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1160,7 +1150,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="27">
+      <c r="H20" s="4">
         <v>1625</v>
       </c>
       <c r="I20" s="2">
@@ -1179,7 +1169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -1192,7 +1182,7 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="27">
+      <c r="H21" s="4">
         <v>1625</v>
       </c>
       <c r="I21" s="4">
@@ -1211,7 +1201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -1241,7 +1231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
@@ -1265,7 +1255,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
@@ -1289,7 +1279,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -1304,7 +1294,7 @@
       <c r="G25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="4">
         <v>1625</v>
       </c>
       <c r="I25" s="4">
@@ -1323,7 +1313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="17" thickBot="1">
+    <row r="26" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="C26" s="15" t="s">
         <v>12</v>
@@ -1357,10 +1347,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
-      <c r="H31" s="28" t="s">
-        <v>53</v>
-      </c>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/manuscript/tables_figures/table_variables.xlsx
+++ b/manuscript/tables_figures/table_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Smithsonian)\Github_Ian\McGregor_climate-sensitivity-variation\manuscript\tables_figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/SCBI-ForestGEO/McGregor_climate-sensitivity-variation/manuscript/tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D0EC7D-9F6B-49D1-A640-30DEC925160C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616F385D-8840-0242-9959-B00AF2A908D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B3D4FDC9-1842-3C4E-B6CD-114DB37D495C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19440" windowHeight="15000" xr2:uid="{B3D4FDC9-1842-3C4E-B6CD-114DB37D495C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
   <si>
     <t>variable</t>
   </si>
@@ -184,13 +184,19 @@
   </si>
   <si>
     <t>cm</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio of annual growth during drought year(s) to the mean growth of the 5 years prior. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -318,14 +324,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -344,31 +345,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,25 +749,25 @@
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="3.375" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="8" max="8" width="5.375" customWidth="1"/>
-    <col min="9" max="9" width="7.375" customWidth="1"/>
-    <col min="10" max="10" width="5.875" customWidth="1"/>
-    <col min="11" max="11" width="1.625" customWidth="1"/>
-    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="17" thickBot="1"/>
+    <row r="2" spans="2:13">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -713,21 +775,21 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="2:13" ht="22" customHeight="1">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="27"/>
       <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
@@ -740,82 +802,88 @@
       <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="25"/>
-    </row>
-    <row r="4" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="43"/>
+    </row>
+    <row r="4" spans="2:13" ht="22" customHeight="1">
+      <c r="B4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="2:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="2:13" ht="46" customHeight="1">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="D5" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="37">
         <v>1625</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="25">
         <v>0.87</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="32">
         <v>0</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="21">
+      <c r="K5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="28">
         <v>1.99</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:13" ht="25" customHeight="1">
+      <c r="B6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -823,81 +891,97 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="38">
         <v>507</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>1977</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="38">
         <v>547</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>1999</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="F9" s="10"/>
+      <c r="G9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="38">
         <v>571</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -908,32 +992,32 @@
       <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="37">
         <v>1625</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="38">
         <v>31.92</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="34">
         <v>3.92</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="9">
         <v>134.19</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -944,32 +1028,32 @@
       <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="37">
         <v>1625</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="37">
         <v>20.21</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="35">
         <v>4.76</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="30">
         <v>43.87</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
@@ -978,14 +1062,14 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="30"/>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -997,25 +1081,25 @@
         <v>28</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="37">
         <v>31</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="4"/>
+      <c r="I14" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="35"/>
       <c r="K14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="30"/>
+      <c r="M14" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -1023,23 +1107,25 @@
         <v>31</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="37">
         <v>231</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="4"/>
+      <c r="I15" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="35"/>
       <c r="K15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L15" s="30"/>
+      <c r="M15" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
@@ -1047,23 +1133,25 @@
         <v>29</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="37">
         <v>224</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="4"/>
+      <c r="I16" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="35"/>
       <c r="K16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="30"/>
+      <c r="M16" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
@@ -1071,23 +1159,25 @@
         <v>30</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="37">
         <v>101</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="4"/>
+      <c r="I17" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="35"/>
       <c r="K17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="30"/>
+      <c r="M17" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="1" customFormat="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -1102,26 +1192,26 @@
       <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="37">
         <v>1625</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="37">
         <v>5.66</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="35">
         <v>0</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="30">
         <v>16</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" s="1" customFormat="1">
       <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
@@ -1130,14 +1220,14 @@
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="30"/>
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1148,28 +1238,28 @@
       <c r="E20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="4">
+      <c r="H20" s="37">
         <v>1625</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="38">
         <v>0.62</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="34">
         <v>0.4</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="9">
         <v>1.0900000000000001</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -1182,26 +1272,26 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4">
+      <c r="H21" s="37">
         <v>1625</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="37">
         <v>48.69</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="35">
         <v>30.68</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="30">
         <v>75.8</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -1209,77 +1299,81 @@
       <c r="D22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="38">
         <v>408</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="4"/>
+      <c r="I22" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="35"/>
       <c r="K22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L22" s="30"/>
+      <c r="M22" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="38">
         <v>31</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="4"/>
+      <c r="I23" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="35"/>
       <c r="K23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L23" s="30"/>
+      <c r="M23" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="38">
         <v>178</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="4"/>
+      <c r="I24" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="35"/>
       <c r="K24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L24" s="30"/>
+      <c r="M24" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -1294,60 +1388,60 @@
       <c r="G25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="37">
         <v>1625</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="37">
         <v>-2.39</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="35">
         <v>-2.76</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="30">
         <v>-1.92</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
+    <row r="26" spans="2:13" ht="17" thickBot="1">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="15" t="s">
+      <c r="E26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="39">
         <v>1625</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="40">
         <v>13.06</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="36">
         <v>8.52</v>
       </c>
-      <c r="K26" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="15">
+      <c r="K26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="31">
         <v>24.64</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13">
       <c r="H31" s="1"/>
     </row>
   </sheetData>

--- a/manuscript/tables_figures/table_variables.xlsx
+++ b/manuscript/tables_figures/table_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/SCBI-ForestGEO/McGregor_climate-sensitivity-variation/manuscript/tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616F385D-8840-0242-9959-B00AF2A908D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB375243-81FF-9040-B5D6-2540273F8FC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19440" windowHeight="15000" xr2:uid="{B3D4FDC9-1842-3C4E-B6CD-114DB37D495C}"/>
   </bookViews>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDD4935-D600-A547-8367-238277C2BA2B}">
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/manuscript/tables_figures/table_variables.xlsx
+++ b/manuscript/tables_figures/table_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/SCBI-ForestGEO/McGregor_climate-sensitivity-variation/manuscript/tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB375243-81FF-9040-B5D6-2540273F8FC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58153EA-3720-3D47-BC96-8D9173A4FB70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19440" windowHeight="15000" xr2:uid="{B3D4FDC9-1842-3C4E-B6CD-114DB37D495C}"/>
+    <workbookView xWindow="7140" yWindow="2680" windowWidth="19440" windowHeight="15000" xr2:uid="{B3D4FDC9-1842-3C4E-B6CD-114DB37D495C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
   <si>
     <t>variable</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t xml:space="preserve">ratio of annual growth during drought year(s) to the mean growth of the 5 years prior. </t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -238,12 +241,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -307,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -345,15 +354,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,28 +371,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -402,9 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -420,17 +405,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +788,7 @@
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M26"/>
+      <selection activeCell="I25" activeCellId="2" sqref="I18:L18 I20:L21 I25:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -775,13 +814,13 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="42" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37" t="s">
         <v>37</v>
       </c>
     </row>
@@ -789,7 +828,7 @@
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
@@ -802,86 +841,86 @@
       <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="43"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="2:13" ht="22" customHeight="1">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="44"/>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="2:13" ht="46" customHeight="1">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="37">
-        <v>1625</v>
-      </c>
-      <c r="I5" s="25">
+      <c r="G5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="29">
+        <v>1596</v>
+      </c>
+      <c r="I5" s="48">
         <v>0.87</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="49">
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="28">
+      <c r="K5" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="51">
         <v>1.99</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="25" customHeight="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="33"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="44"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="34"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="2"/>
@@ -898,18 +937,18 @@
       <c r="G7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="38">
-        <v>507</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="34"/>
+      <c r="H7" s="30">
+        <v>478</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="27"/>
       <c r="K7" s="9" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="9"/>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -924,18 +963,18 @@
       <c r="G8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="30">
         <v>547</v>
       </c>
-      <c r="I8" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="34"/>
+      <c r="I8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="27"/>
       <c r="K8" s="9" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="9"/>
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -950,18 +989,18 @@
       <c r="G9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="30">
         <v>571</v>
       </c>
-      <c r="I9" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="34"/>
+      <c r="I9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="27"/>
       <c r="K9" s="9" t="s">
         <v>35</v>
       </c>
       <c r="L9" s="9"/>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -974,12 +1013,12 @@
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="34"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="27"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="38"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="2"/>
@@ -998,22 +1037,22 @@
       <c r="G11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="37">
-        <v>1625</v>
-      </c>
-      <c r="I11" s="38">
+      <c r="H11" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="41">
         <v>31.92</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="42">
         <v>3.92</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="K11" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="44">
         <v>134.19</v>
       </c>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1034,22 +1073,22 @@
       <c r="G12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="37">
-        <v>1625</v>
-      </c>
-      <c r="I12" s="37">
+      <c r="H12" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="40">
         <v>20.21</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="45">
         <v>4.76</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="30">
+      <c r="K12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="47">
         <v>43.87</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1062,12 +1101,12 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="35"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="37"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="2"/>
@@ -1084,18 +1123,18 @@
       <c r="G14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="40">
         <v>31</v>
       </c>
-      <c r="I14" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="35"/>
+      <c r="I14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="28"/>
       <c r="K14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="37" t="s">
+      <c r="L14" s="25"/>
+      <c r="M14" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1110,18 +1149,18 @@
       <c r="G15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="40">
         <v>231</v>
       </c>
-      <c r="I15" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="35"/>
+      <c r="I15" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="28"/>
       <c r="K15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="37" t="s">
+      <c r="L15" s="25"/>
+      <c r="M15" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1136,18 +1175,18 @@
       <c r="G16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="40">
         <v>224</v>
       </c>
-      <c r="I16" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="35"/>
+      <c r="I16" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="28"/>
       <c r="K16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="37" t="s">
+      <c r="L16" s="25"/>
+      <c r="M16" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1162,18 +1201,18 @@
       <c r="G17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="40">
         <v>101</v>
       </c>
-      <c r="I17" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="35"/>
+      <c r="I17" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="28"/>
       <c r="K17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="37" t="s">
+      <c r="L17" s="25"/>
+      <c r="M17" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1192,22 +1231,22 @@
       <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="37">
-        <v>1625</v>
-      </c>
-      <c r="I18" s="37">
+      <c r="H18" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="40">
         <v>5.66</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="45">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="30">
+      <c r="K18" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="47">
         <v>16</v>
       </c>
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1220,12 +1259,12 @@
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="35"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="37"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="2"/>
@@ -1240,22 +1279,22 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="37">
-        <v>1625</v>
-      </c>
-      <c r="I20" s="38">
+      <c r="H20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="41">
         <v>0.62</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="42">
         <v>0.4</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="9">
+      <c r="K20" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="44">
         <v>1.0900000000000001</v>
       </c>
-      <c r="M20" s="38" t="s">
+      <c r="M20" s="30" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1272,22 +1311,22 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="37">
-        <v>1625</v>
-      </c>
-      <c r="I21" s="37">
+      <c r="H21" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="40">
         <v>48.69</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="45">
         <v>30.68</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="30">
+      <c r="K21" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="47">
         <v>75.8</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="29" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1306,18 +1345,18 @@
       <c r="G22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="41">
         <v>408</v>
       </c>
-      <c r="I22" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="35"/>
+      <c r="I22" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="28"/>
       <c r="K22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="38" t="s">
+      <c r="L22" s="25"/>
+      <c r="M22" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1332,18 +1371,18 @@
       <c r="G23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="41">
         <v>31</v>
       </c>
-      <c r="I23" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="35"/>
+      <c r="I23" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="28"/>
       <c r="K23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="38" t="s">
+      <c r="L23" s="25"/>
+      <c r="M23" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1358,18 +1397,18 @@
       <c r="G24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="41">
         <v>178</v>
       </c>
-      <c r="I24" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="35"/>
+      <c r="I24" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="28"/>
       <c r="K24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="38" t="s">
+      <c r="L24" s="25"/>
+      <c r="M24" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1388,22 +1427,22 @@
       <c r="G25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="37">
-        <v>1625</v>
-      </c>
-      <c r="I25" s="37">
+      <c r="H25" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="40">
         <v>-2.39</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="45">
         <v>-2.76</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="30">
+      <c r="K25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="47">
         <v>-1.92</v>
       </c>
-      <c r="M25" s="37" t="s">
+      <c r="M25" s="29" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1422,22 +1461,22 @@
       <c r="G26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="39">
-        <v>1625</v>
-      </c>
-      <c r="I26" s="40">
+      <c r="H26" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="52">
         <v>13.06</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="53">
         <v>8.52</v>
       </c>
-      <c r="K26" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="31">
+      <c r="K26" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="55">
         <v>24.64</v>
       </c>
-      <c r="M26" s="40" t="s">
+      <c r="M26" s="32" t="s">
         <v>39</v>
       </c>
     </row>

--- a/manuscript/tables_figures/table_variables.xlsx
+++ b/manuscript/tables_figures/table_variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/SCBI-ForestGEO/McGregor_climate-sensitivity-variation/manuscript/tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58153EA-3720-3D47-BC96-8D9173A4FB70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECC64A9-908C-E440-83ED-B6AE0001CBF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="2680" windowWidth="19440" windowHeight="15000" xr2:uid="{B3D4FDC9-1842-3C4E-B6CD-114DB37D495C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t>variable</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>dry mass of a unit volume of fresh wood</t>
   </si>
 </sst>
 </file>
@@ -411,6 +414,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,54 +473,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,7 +791,7 @@
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" activeCellId="2" sqref="I18:L18 I20:L21 I25:L26"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -814,13 +817,13 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -847,12 +850,12 @@
       <c r="I3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="38"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="2:13" ht="22" customHeight="1">
       <c r="B4" s="22" t="s">
@@ -890,16 +893,16 @@
       <c r="H5" s="29">
         <v>1596</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="44">
         <v>0.87</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="45">
         <v>0</v>
       </c>
-      <c r="K5" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="51">
+      <c r="K5" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="47">
         <v>1.99</v>
       </c>
       <c r="M5" s="35" t="s">
@@ -1040,16 +1043,16 @@
       <c r="H11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="37">
         <v>31.92</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="38">
         <v>3.92</v>
       </c>
-      <c r="K11" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="44">
+      <c r="K11" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="40">
         <v>134.19</v>
       </c>
       <c r="M11" s="30" t="s">
@@ -1076,16 +1079,16 @@
       <c r="H12" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="36">
         <v>20.21</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="41">
         <v>4.76</v>
       </c>
-      <c r="K12" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="47">
+      <c r="K12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="43">
         <v>43.87</v>
       </c>
       <c r="M12" s="29" t="s">
@@ -1123,7 +1126,7 @@
       <c r="G14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="36">
         <v>31</v>
       </c>
       <c r="I14" s="29" t="s">
@@ -1149,7 +1152,7 @@
       <c r="G15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="36">
         <v>231</v>
       </c>
       <c r="I15" s="29" t="s">
@@ -1175,7 +1178,7 @@
       <c r="G16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="36">
         <v>224</v>
       </c>
       <c r="I16" s="29" t="s">
@@ -1201,7 +1204,7 @@
       <c r="G17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="36">
         <v>101</v>
       </c>
       <c r="I17" s="29" t="s">
@@ -1234,16 +1237,16 @@
       <c r="H18" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="36">
         <v>5.66</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="41">
         <v>0</v>
       </c>
-      <c r="K18" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="47">
+      <c r="K18" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="43">
         <v>16</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -1266,7 +1269,7 @@
       <c r="L19" s="25"/>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" ht="28">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1277,21 +1280,23 @@
       <c r="E20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="37">
         <v>0.62</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="38">
         <v>0.4</v>
       </c>
-      <c r="K20" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="44">
+      <c r="K20" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="40">
         <v>1.0900000000000001</v>
       </c>
       <c r="M20" s="30" t="s">
@@ -1314,16 +1319,16 @@
       <c r="H21" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="36">
         <v>48.69</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="41">
         <v>30.68</v>
       </c>
-      <c r="K21" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="47">
+      <c r="K21" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="43">
         <v>75.8</v>
       </c>
       <c r="M21" s="29" t="s">
@@ -1345,7 +1350,7 @@
       <c r="G22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="37">
         <v>408</v>
       </c>
       <c r="I22" s="29" t="s">
@@ -1371,7 +1376,7 @@
       <c r="G23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="37">
         <v>31</v>
       </c>
       <c r="I23" s="29" t="s">
@@ -1397,7 +1402,7 @@
       <c r="G24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="37">
         <v>178</v>
       </c>
       <c r="I24" s="29" t="s">
@@ -1430,16 +1435,16 @@
       <c r="H25" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="36">
         <v>-2.39</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="41">
         <v>-2.76</v>
       </c>
-      <c r="K25" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="47">
+      <c r="K25" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="43">
         <v>-1.92</v>
       </c>
       <c r="M25" s="29" t="s">
@@ -1464,16 +1469,16 @@
       <c r="H26" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="48">
         <v>13.06</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J26" s="49">
         <v>8.52</v>
       </c>
-      <c r="K26" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="55">
+      <c r="K26" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="51">
         <v>24.64</v>
       </c>
       <c r="M26" s="32" t="s">
